--- a/data/trans_orig/IP3106-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3106-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC663B59-EF8B-4C3A-B493-48EAAC824F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C20E459-12A3-4745-B606-34EB5B0B6907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F23643C1-276C-458A-8947-FCCA57B1B1F2}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{43003590-9963-4FE1-9071-C03429C8F551}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
     <t>3 o 4 veces a la semana</t>
   </si>
   <si>
@@ -101,34 +161,28 @@
     <t>9,58%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -137,15 +191,9 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,75%</t>
   </si>
   <si>
@@ -158,63 +206,180 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
     <t>3,56%</t>
   </si>
   <si>
@@ -242,187 +407,73 @@
     <t>4,93%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
   </si>
   <si>
     <t>4,97%</t>
@@ -452,45 +503,30 @@
     <t>6,01%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
@@ -500,45 +536,63 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia se baña o ducha en 2012 (Tasa respuesta: 91,85%)</t>
   </si>
   <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
@@ -560,31 +614,19 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -593,46 +635,142 @@
     <t>0,96%</t>
   </si>
   <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>2,19%</t>
@@ -641,9 +779,6 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
     <t>2,66%</t>
   </si>
   <si>
@@ -659,28 +794,13 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -689,124 +809,58 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>2,62%</t>
@@ -827,60 +881,6 @@
     <t>3,62%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
     <t>0,36%</t>
   </si>
   <si>
@@ -899,6 +899,60 @@
     <t>Menores según la frecuencia se baña o ducha en 2015 (Tasa respuesta: 92,66%)</t>
   </si>
   <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
     <t>2,71%</t>
   </si>
   <si>
@@ -923,73 +977,163 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>3,86%</t>
@@ -1016,151 +1160,58 @@
     <t>2,25%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>3,31%</t>
@@ -1184,57 +1235,6 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
     <t>0,87%</t>
   </si>
   <si>
@@ -1244,6 +1244,54 @@
     <t>Menores según la frecuencia se baña o ducha en 2023 (Tasa respuesta: 96,56%)</t>
   </si>
   <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
     <t>6,43%</t>
   </si>
   <si>
@@ -1262,67 +1310,163 @@
     <t>8,9%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
     <t>0,99%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
   </si>
   <si>
     <t>6,84%</t>
@@ -1346,60 +1490,6 @@
     <t>7,32%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
     <t>3,17%</t>
   </si>
   <si>
@@ -1409,94 +1499,55 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>7,54%</t>
@@ -1517,61 +1568,10 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>0,23%</t>
   </si>
   <si>
     <t>0,44%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E589745-1B36-4879-9299-E141DFA37653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DECA17-B0E1-4578-A7A9-9C1EFCCFA8E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2081,10 +2081,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="D4" s="7">
-        <v>9788</v>
+        <v>129976</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2096,10 +2096,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="I4" s="7">
-        <v>14183</v>
+        <v>121483</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2111,10 +2111,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>380</v>
       </c>
       <c r="N4" s="7">
-        <v>23971</v>
+        <v>251460</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2183,10 +2183,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>1375</v>
+        <v>9788</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2198,40 +2198,40 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>14183</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7">
         <v>34</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
       <c r="N6" s="7">
-        <v>1375</v>
+        <v>23971</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2240,142 +2240,142 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>129976</v>
+        <v>1375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>121483</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>251460</v>
+        <v>1375</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>711</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>55</v>
@@ -2440,10 +2440,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="D11" s="7">
-        <v>9971</v>
+        <v>163656</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -2455,10 +2455,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="I11" s="7">
-        <v>9095</v>
+        <v>152812</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -2470,10 +2470,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>28</v>
+        <v>475</v>
       </c>
       <c r="N11" s="7">
-        <v>19066</v>
+        <v>316468</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -2491,10 +2491,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>46633</v>
+        <v>37890</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>67</v>
@@ -2506,10 +2506,10 @@
         <v>69</v>
       </c>
       <c r="H12" s="7">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>39809</v>
+        <v>41206</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>70</v>
@@ -2521,10 +2521,10 @@
         <v>72</v>
       </c>
       <c r="M12" s="7">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="N12" s="7">
-        <v>86442</v>
+        <v>79096</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>73</v>
@@ -2542,70 +2542,70 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>13815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>9784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>23599</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2614,100 +2614,100 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
-        <v>334</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>223059</v>
+        <v>1383</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>213861</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M15" s="7">
-        <v>653</v>
+        <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>436920</v>
+        <v>1383</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2716,28 +2716,28 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>420</v>
+        <v>329</v>
       </c>
       <c r="D17" s="7">
-        <v>280384</v>
+        <v>217392</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>56</v>
@@ -2761,10 +2761,10 @@
         <v>56</v>
       </c>
       <c r="H17" s="7">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="I17" s="7">
-        <v>262764</v>
+        <v>203802</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>56</v>
@@ -2776,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="M17" s="7">
-        <v>810</v>
+        <v>631</v>
       </c>
       <c r="N17" s="7">
-        <v>543148</v>
+        <v>421194</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>56</v>
@@ -2793,55 +2793,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="D18" s="7">
-        <v>13815</v>
+        <v>223059</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="I18" s="7">
-        <v>9784</v>
+        <v>213861</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
-        <v>35</v>
+        <v>653</v>
       </c>
       <c r="N18" s="7">
-        <v>23599</v>
+        <v>436920</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,49 +2850,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
-        <v>37890</v>
+        <v>46633</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>41206</v>
+        <v>39809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="N19" s="7">
-        <v>79096</v>
+        <v>86442</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,70 +2901,70 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>1383</v>
+        <v>9971</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>9095</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="N20" s="7">
-        <v>1383</v>
+        <v>19066</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2973,100 +2973,100 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>163656</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>152812</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>316468</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3075,25 +3075,25 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>127</v>
@@ -3105,10 +3105,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="D24" s="7">
-        <v>217392</v>
+        <v>280384</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>56</v>
@@ -3120,10 +3120,10 @@
         <v>56</v>
       </c>
       <c r="H24" s="7">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="I24" s="7">
-        <v>203802</v>
+        <v>262764</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>56</v>
@@ -3135,10 +3135,10 @@
         <v>56</v>
       </c>
       <c r="M24" s="7">
-        <v>631</v>
+        <v>810</v>
       </c>
       <c r="N24" s="7">
-        <v>421194</v>
+        <v>543148</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>56</v>
@@ -3158,10 +3158,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>50</v>
+        <v>776</v>
       </c>
       <c r="D25" s="7">
-        <v>33574</v>
+        <v>516692</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>128</v>
@@ -3173,10 +3173,10 @@
         <v>130</v>
       </c>
       <c r="H25" s="7">
-        <v>47</v>
+        <v>732</v>
       </c>
       <c r="I25" s="7">
-        <v>33062</v>
+        <v>488155</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>131</v>
@@ -3188,10 +3188,10 @@
         <v>133</v>
       </c>
       <c r="M25" s="7">
-        <v>97</v>
+        <v>1508</v>
       </c>
       <c r="N25" s="7">
-        <v>66636</v>
+        <v>1004847</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>134</v>
@@ -3218,7 +3218,7 @@
         <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>138</v>
@@ -3260,10 +3260,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D27" s="7">
-        <v>2757</v>
+        <v>33574</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>145</v>
@@ -3275,187 +3275,187 @@
         <v>147</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>33062</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M27" s="7">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="N27" s="7">
-        <v>2757</v>
+        <v>66636</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>1369</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
-        <v>776</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>516692</v>
+        <v>2757</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="7">
-        <v>732</v>
-      </c>
-      <c r="I29" s="7">
-        <v>488155</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="M29" s="7">
-        <v>1508</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>1004847</v>
+        <v>2757</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>1369</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,7 +3525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE008B8A-13BD-4E00-8E7B-9777B30BAD04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CFD82B-9B84-4C79-9965-064BC0C41D1A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3643,49 +3643,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="D4" s="7">
-        <v>1625</v>
+        <v>164004</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="I4" s="7">
-        <v>2970</v>
+        <v>160940</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>480</v>
       </c>
       <c r="N4" s="7">
-        <v>4594</v>
+        <v>324945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3700,13 @@
         <v>13712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3715,13 +3715,13 @@
         <v>5726</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3730,13 +3730,13 @@
         <v>19438</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,202 +3745,202 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>670</v>
+        <v>1625</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2970</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>670</v>
+        <v>4594</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1398</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>164004</v>
+        <v>670</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>160940</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>324945</v>
+        <v>670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>196</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1398</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,10 +4002,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="D11" s="7">
-        <v>5895</v>
+        <v>209261</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>198</v>
@@ -4017,10 +4017,10 @@
         <v>200</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="I11" s="7">
-        <v>6791</v>
+        <v>203368</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>201</v>
@@ -4032,10 +4032,10 @@
         <v>203</v>
       </c>
       <c r="M11" s="7">
-        <v>18</v>
+        <v>574</v>
       </c>
       <c r="N11" s="7">
-        <v>12686</v>
+        <v>412629</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>204</v>
@@ -4053,10 +4053,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>13209</v>
+        <v>20142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>207</v>
@@ -4068,34 +4068,34 @@
         <v>209</v>
       </c>
       <c r="H12" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>14076</v>
+        <v>15915</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N12" s="7">
-        <v>27284</v>
+        <v>36056</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,55 +4104,55 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>10582</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>8816</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>19398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4161,115 +4161,115 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>248957</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>234285</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M15" s="7">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>483242</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1582</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4278,28 +4278,28 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1582</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,10 +4308,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="D17" s="7">
-        <v>269642</v>
+        <v>239985</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>56</v>
@@ -4323,10 +4323,10 @@
         <v>56</v>
       </c>
       <c r="H17" s="7">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="I17" s="7">
-        <v>255152</v>
+        <v>228845</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>56</v>
@@ -4338,10 +4338,10 @@
         <v>56</v>
       </c>
       <c r="M17" s="7">
-        <v>760</v>
+        <v>652</v>
       </c>
       <c r="N17" s="7">
-        <v>524794</v>
+        <v>468830</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>56</v>
@@ -4355,16 +4355,16 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>367</v>
       </c>
       <c r="D18" s="7">
-        <v>10582</v>
+        <v>248957</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>228</v>
@@ -4376,34 +4376,34 @@
         <v>230</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="I18" s="7">
-        <v>8816</v>
+        <v>234285</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M18" s="7">
-        <v>26</v>
+        <v>701</v>
       </c>
       <c r="N18" s="7">
-        <v>19398</v>
+        <v>483242</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,49 +4412,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>20142</v>
+        <v>13209</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>15915</v>
+        <v>14076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>36056</v>
+        <v>27284</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,70 +4463,70 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>5895</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>6791</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>34</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>12686</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1582</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4535,85 +4535,85 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>1582</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>209261</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>203368</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
-        <v>574</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>412629</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -4622,40 +4622,40 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>255</v>
@@ -4667,10 +4667,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="D24" s="7">
-        <v>239985</v>
+        <v>269642</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>56</v>
@@ -4682,10 +4682,10 @@
         <v>56</v>
       </c>
       <c r="H24" s="7">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="I24" s="7">
-        <v>228845</v>
+        <v>255152</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>56</v>
@@ -4697,10 +4697,10 @@
         <v>56</v>
       </c>
       <c r="M24" s="7">
-        <v>652</v>
+        <v>760</v>
       </c>
       <c r="N24" s="7">
-        <v>468830</v>
+        <v>524794</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>56</v>
@@ -4720,49 +4720,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>892</v>
       </c>
       <c r="D25" s="7">
-        <v>18101</v>
+        <v>622224</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>256</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H25" s="7">
-        <v>26</v>
+        <v>863</v>
       </c>
       <c r="I25" s="7">
-        <v>18576</v>
+        <v>598594</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M25" s="7">
-        <v>50</v>
+        <v>1755</v>
       </c>
       <c r="N25" s="7">
-        <v>36678</v>
+        <v>1220817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4777,13 @@
         <v>47063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -4792,13 +4792,13 @@
         <v>35717</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -4807,13 +4807,13 @@
         <v>82779</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,202 +4822,202 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D27" s="7">
-        <v>670</v>
+        <v>18101</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>18576</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N27" s="7">
-        <v>670</v>
+        <v>36678</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>2481</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>1245</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>281</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>3727</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
-        <v>892</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>622224</v>
+        <v>670</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>271</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>273</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7">
-        <v>863</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>598594</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>276</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
-        <v>1755</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>1220817</v>
+        <v>670</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>2481</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>3727</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,7 +5087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BD2C46-5079-4A04-93CF-026E10FDA746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA37513-4397-445D-B701-845A0CBD1C1D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5205,10 +5205,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="D4" s="7">
-        <v>4576</v>
+        <v>147853</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>286</v>
@@ -5220,10 +5220,10 @@
         <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="I4" s="7">
-        <v>4425</v>
+        <v>134637</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>289</v>
@@ -5232,22 +5232,22 @@
         <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>444</v>
       </c>
       <c r="N4" s="7">
-        <v>9001</v>
+        <v>282490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5262,13 @@
         <v>15714</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -5277,13 +5277,13 @@
         <v>13682</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -5292,13 +5292,13 @@
         <v>29396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,199 +5307,199 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>4576</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>4425</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>307</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>9001</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1356</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>147853</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>305</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>306</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>134637</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>282490</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>820</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>315</v>
+        <v>49</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>1356</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>316</v>
@@ -5564,10 +5564,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>10716</v>
+        <v>218253</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>317</v>
@@ -5579,10 +5579,10 @@
         <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I11" s="7">
-        <v>7995</v>
+        <v>201497</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>320</v>
@@ -5594,10 +5594,10 @@
         <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
+        <v>628</v>
       </c>
       <c r="N11" s="7">
-        <v>18711</v>
+        <v>419750</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>323</v>
@@ -5606,7 +5606,7 @@
         <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,49 +5615,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>24017</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="7">
         <v>39</v>
       </c>
-      <c r="D12" s="7">
-        <v>28564</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H12" s="7">
-        <v>44</v>
-      </c>
       <c r="I12" s="7">
-        <v>31563</v>
+        <v>25681</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="N12" s="7">
-        <v>60127</v>
+        <v>49698</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,55 +5666,55 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>7782</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>336</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>4667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>12448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>336</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5723,115 +5723,115 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>236586</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>336</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c r="H15" s="7">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>225623</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M15" s="7">
-        <v>636</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>462209</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5840,28 +5840,28 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,10 +5870,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D17" s="7">
-        <v>277326</v>
+        <v>250052</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>56</v>
@@ -5885,10 +5885,10 @@
         <v>56</v>
       </c>
       <c r="H17" s="7">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="I17" s="7">
-        <v>265181</v>
+        <v>232644</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>56</v>
@@ -5900,10 +5900,10 @@
         <v>56</v>
       </c>
       <c r="M17" s="7">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="N17" s="7">
-        <v>542507</v>
+        <v>482696</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>56</v>
@@ -5917,55 +5917,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="D18" s="7">
-        <v>7782</v>
+        <v>236586</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="I18" s="7">
-        <v>4667</v>
+        <v>225623</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M18" s="7">
-        <v>18</v>
+        <v>636</v>
       </c>
       <c r="N18" s="7">
-        <v>12448</v>
+        <v>462209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,49 +5974,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>24017</v>
+        <v>28564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H19" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7">
-        <v>25681</v>
+        <v>31563</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N19" s="7">
-        <v>49698</v>
+        <v>60127</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,70 +6025,70 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>10716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>365</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>366</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>367</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>7995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>34</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>18711</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>32</v>
+        <v>371</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6097,85 +6097,85 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>218253</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>201497</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>419750</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -6184,43 +6184,43 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>799</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>41</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>799</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>373</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,10 +6229,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="D24" s="7">
-        <v>250052</v>
+        <v>277326</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>56</v>
@@ -6244,10 +6244,10 @@
         <v>56</v>
       </c>
       <c r="H24" s="7">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="I24" s="7">
-        <v>232644</v>
+        <v>265181</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>56</v>
@@ -6259,10 +6259,10 @@
         <v>56</v>
       </c>
       <c r="M24" s="7">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="N24" s="7">
-        <v>482696</v>
+        <v>542507</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>56</v>
@@ -6282,10 +6282,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>864</v>
       </c>
       <c r="D25" s="7">
-        <v>23073</v>
+        <v>602693</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>374</v>
@@ -6294,16 +6294,16 @@
         <v>375</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="7">
+        <v>844</v>
+      </c>
+      <c r="I25" s="7">
+        <v>561757</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="H25" s="7">
-        <v>26</v>
-      </c>
-      <c r="I25" s="7">
-        <v>17086</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>377</v>
@@ -6312,19 +6312,19 @@
         <v>378</v>
       </c>
       <c r="M25" s="7">
-        <v>57</v>
+        <v>1708</v>
       </c>
       <c r="N25" s="7">
-        <v>40160</v>
+        <v>1164449</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6339,13 @@
         <v>68295</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -6354,13 +6354,13 @@
         <v>70926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -6369,13 +6369,13 @@
         <v>139221</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,202 +6384,202 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>23073</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>391</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>151</v>
+        <v>393</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>17086</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>394</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>148</v>
+        <v>395</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>40160</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>396</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>152</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>2280</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>398</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>1335</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>399</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>3615</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>602693</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>337</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
-        <v>844</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>561757</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>394</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
-        <v>1708</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>1164449</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>395</v>
+        <v>41</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>396</v>
+        <v>42</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>397</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>2280</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>398</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>1335</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>399</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>3615</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,7 +6649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2662099-D162-4785-A3DF-42031D43BF91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB08CAE-F3CE-45D8-9977-753D4851069A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6767,10 +6767,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D4" s="7">
-        <v>6598</v>
+        <v>71065</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>401</v>
@@ -6782,34 +6782,34 @@
         <v>403</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="I4" s="7">
-        <v>5132</v>
+        <v>67761</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>404</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>405</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="N4" s="7">
-        <v>11730</v>
+        <v>138826</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>407</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6824,13 @@
         <v>24916</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -6839,13 +6839,13 @@
         <v>19321</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>83</v>
@@ -6854,13 +6854,13 @@
         <v>44236</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,55 +6869,55 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>6598</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>417</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>34</v>
+        <v>418</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>5132</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>420</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>11730</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -6926,100 +6926,100 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>424</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>71065</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>419</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H8" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>67761</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>421</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M8" s="7">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>138826</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>424</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>425</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -7028,40 +7028,40 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>427</v>
@@ -7126,10 +7126,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="D11" s="7">
-        <v>27500</v>
+        <v>137013</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>428</v>
@@ -7138,37 +7138,37 @@
         <v>429</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I11" s="7">
-        <v>15745</v>
+        <v>133602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M11" s="7">
-        <v>64</v>
+        <v>377</v>
       </c>
       <c r="N11" s="7">
-        <v>43245</v>
+        <v>270614</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>434</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,49 +7177,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>95413</v>
+        <v>46195</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H12" s="7">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I12" s="7">
-        <v>81538</v>
+        <v>52749</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M12" s="7">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="N12" s="7">
-        <v>176951</v>
+        <v>98944</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,202 +7228,202 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>19359</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>421</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>445</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>9903</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>446</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>34</v>
+        <v>447</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>448</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>29262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>449</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>450</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>452</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2013</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>453</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>275537</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>444</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="H15" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>250337</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>448</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M15" s="7">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>525874</v>
+        <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>451</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>452</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>3832</v>
+        <v>616</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>453</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1993</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>5824</v>
+        <v>616</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,10 +7432,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>478</v>
+        <v>269</v>
       </c>
       <c r="D17" s="7">
-        <v>402281</v>
+        <v>203940</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>56</v>
@@ -7447,10 +7447,10 @@
         <v>56</v>
       </c>
       <c r="H17" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>56</v>
@@ -7462,10 +7462,10 @@
         <v>56</v>
       </c>
       <c r="M17" s="7">
-        <v>939</v>
+        <v>550</v>
       </c>
       <c r="N17" s="7">
-        <v>751894</v>
+        <v>402207</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>56</v>
@@ -7479,55 +7479,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="D18" s="7">
-        <v>19359</v>
+        <v>275537</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>319</v>
+        <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H18" s="7">
-        <v>18</v>
+        <v>332</v>
       </c>
       <c r="I18" s="7">
-        <v>9903</v>
+        <v>250337</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M18" s="7">
-        <v>44</v>
+        <v>655</v>
       </c>
       <c r="N18" s="7">
-        <v>29262</v>
+        <v>525874</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,49 +7536,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="D19" s="7">
-        <v>46195</v>
+        <v>95413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H19" s="7">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I19" s="7">
-        <v>52749</v>
+        <v>81538</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="M19" s="7">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="N19" s="7">
-        <v>98944</v>
+        <v>176951</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,202 +7587,202 @@
         <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>27500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>471</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>15745</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>32</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>34</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>43245</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>34</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>616</v>
+        <v>3832</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>316</v>
+        <v>483</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>1993</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>616</v>
+        <v>5824</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22" s="7">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>137013</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>474</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>475</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>476</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>133602</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="M22" s="7">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>270614</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>480</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>481</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>757</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>52</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>41</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>485</v>
+        <v>44</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>2770</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>281</v>
+        <v>41</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,10 +7791,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>269</v>
+        <v>478</v>
       </c>
       <c r="D24" s="7">
-        <v>203940</v>
+        <v>402281</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>56</v>
@@ -7806,10 +7806,10 @@
         <v>56</v>
       </c>
       <c r="H24" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I24" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>56</v>
@@ -7821,10 +7821,10 @@
         <v>56</v>
       </c>
       <c r="M24" s="7">
-        <v>550</v>
+        <v>939</v>
       </c>
       <c r="N24" s="7">
-        <v>402207</v>
+        <v>751894</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>56</v>
@@ -7844,10 +7844,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>78</v>
+        <v>640</v>
       </c>
       <c r="D25" s="7">
-        <v>53457</v>
+        <v>483615</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>486</v>
@@ -7856,37 +7856,37 @@
         <v>487</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="H25" s="7">
-        <v>53</v>
+        <v>650</v>
       </c>
       <c r="I25" s="7">
-        <v>30780</v>
+        <v>451701</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>95</v>
+        <v>489</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M25" s="7">
-        <v>131</v>
+        <v>1290</v>
       </c>
       <c r="N25" s="7">
-        <v>84237</v>
+        <v>935315</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7901,13 @@
         <v>166523</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H26" s="7">
         <v>204</v>
@@ -7916,13 +7916,13 @@
         <v>153608</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M26" s="7">
         <v>418</v>
@@ -7931,13 +7931,13 @@
         <v>320131</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,202 +7946,202 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>53457</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>503</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>504</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>148</v>
+        <v>326</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>30780</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>505</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>506</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="N27" s="7">
-        <v>0</v>
+        <v>84237</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>507</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>508</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>152</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>616</v>
+        <v>4589</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>32</v>
+        <v>509</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>500</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>4520</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>32</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N28" s="7">
-        <v>616</v>
+        <v>9109</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>149</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>483615</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>502</v>
+        <v>42</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>503</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>451701</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>504</v>
+        <v>41</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>505</v>
+        <v>42</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>506</v>
+        <v>46</v>
       </c>
       <c r="M29" s="7">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>935315</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>508</v>
+        <v>42</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>509</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>4589</v>
+        <v>616</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="H30" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>4520</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>471</v>
+        <v>41</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="M30" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>9109</v>
+        <v>616</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>472</v>
+        <v>159</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP3106-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3106-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0ACC98A-BCE8-4261-A401-6D850E02B037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B764976-4868-4C5C-A4EE-BBE14FD5343D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B954DFBA-9AFA-43B9-B103-7ED6553029D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD52576F-8102-46BA-A26E-718AE9338E18}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="622">
   <si>
     <t>Menores según la frecuencia se baña o ducha en 2007 (Tasa respuesta: 93,25%)</t>
   </si>
@@ -95,1774 +95,1816 @@
     <t>0,85%</t>
   </si>
   <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se baña o ducha en 2012 (Tasa respuesta: 91,85%)</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se baña o ducha en 2016 (Tasa respuesta: 92,66%)</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se baña o ducha en 2023 (Tasa respuesta: 96,56%)</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se baña o ducha en 2012 (Tasa respuesta: 91,85%)</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se baña o ducha en 2015 (Tasa respuesta: 92,66%)</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se baña o ducha en 2023 (Tasa respuesta: 96,56%)</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>9,6%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>6,34%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
     <t>23,49%</t>
   </si>
   <si>
-    <t>20,19%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>23,98%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>68,23%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>69,31%</t>
   </si>
   <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D81861-D324-455B-91CF-87D73B61FC20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E98D7E-90D2-46EA-A5F8-E18B54B079F9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2605,10 +2647,10 @@
         <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -2617,13 +2659,13 @@
         <v>10776</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -2632,19 +2674,19 @@
         <v>25087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7">
         <v>85</v>
@@ -2653,13 +2695,13 @@
         <v>56393</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -2668,13 +2710,13 @@
         <v>48250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -2683,13 +2725,13 @@
         <v>104643</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2746,13 @@
         <v>76170</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -2719,13 +2761,13 @@
         <v>64690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>213</v>
@@ -2734,18 +2776,18 @@
         <v>140861</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2763,7 +2805,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2778,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2793,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2850,13 @@
         <v>2109</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2829,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -2838,13 +2880,13 @@
         <v>2109</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2907,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2874,13 +2916,13 @@
         <v>711</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2889,13 +2931,13 @@
         <v>711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,13 +2952,13 @@
         <v>14813</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -2925,13 +2967,13 @@
         <v>13801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -2940,13 +2982,13 @@
         <v>28614</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +3003,13 @@
         <v>49297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -2976,13 +3018,13 @@
         <v>49281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M15" s="7">
         <v>149</v>
@@ -2991,19 +3033,19 @@
         <v>98578</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7">
         <v>281</v>
@@ -3012,13 +3054,13 @@
         <v>187537</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>282</v>
@@ -3027,13 +3069,13 @@
         <v>187471</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>563</v>
@@ -3042,13 +3084,13 @@
         <v>375009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3105,13 @@
         <v>253756</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>376</v>
@@ -3078,13 +3120,13 @@
         <v>251264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>758</v>
@@ -3093,18 +3135,18 @@
         <v>505021</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3122,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3137,7 +3179,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3152,7 +3194,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,7 +3215,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3188,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3203,7 +3245,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,22 +3266,22 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3248,13 +3290,13 @@
         <v>649</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3311,13 @@
         <v>5845</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -3284,13 +3326,13 @@
         <v>9988</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -3299,10 +3341,10 @@
         <v>15833</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>107</v>
@@ -3362,7 +3404,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7">
         <v>168</v>
@@ -3422,13 +3464,13 @@
         <v>140235</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="7">
         <v>189</v>
@@ -3437,13 +3479,13 @@
         <v>126086</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M24" s="7">
         <v>399</v>
@@ -3452,13 +3494,13 @@
         <v>266321</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3670,13 @@
         <v>8098</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -3643,13 +3685,13 @@
         <v>3609</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -3658,13 +3700,13 @@
         <v>11707</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3721,13 @@
         <v>35912</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -3694,13 +3736,13 @@
         <v>33290</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>102</v>
@@ -3709,19 +3751,19 @@
         <v>69203</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7">
         <v>242</v>
@@ -3730,13 +3772,13 @@
         <v>160836</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H30" s="7">
         <v>230</v>
@@ -3745,13 +3787,13 @@
         <v>155041</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>472</v>
@@ -3760,13 +3802,13 @@
         <v>315876</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3823,13 @@
         <v>205566</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" s="7">
         <v>283</v>
@@ -3796,13 +3838,13 @@
         <v>191941</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M31" s="7">
         <v>592</v>
@@ -3811,13 +3853,13 @@
         <v>397506</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,37 +3882,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3927,13 @@
         <v>2757</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -3906,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -3915,13 +3957,13 @@
         <v>2757</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3978,13 @@
         <v>1369</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3951,13 +3993,13 @@
         <v>711</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -3966,13 +4008,13 @@
         <v>2080</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +4029,13 @@
         <v>33574</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H35" s="7">
         <v>47</v>
@@ -4002,13 +4044,13 @@
         <v>33062</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M35" s="7">
         <v>97</v>
@@ -4017,13 +4059,13 @@
         <v>66636</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4080,13 @@
         <v>121334</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>166</v>
@@ -4053,13 +4095,13 @@
         <v>112054</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>350</v>
@@ -4068,19 +4110,19 @@
         <v>233388</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="7">
         <v>776</v>
@@ -4089,13 +4131,13 @@
         <v>516692</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H37" s="7">
         <v>732</v>
@@ -4104,13 +4146,13 @@
         <v>488155</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M37" s="7">
         <v>1508</v>
@@ -4119,13 +4161,13 @@
         <v>1004847</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4182,13 @@
         <v>675727</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H38" s="7">
         <v>946</v>
@@ -4155,13 +4197,13 @@
         <v>633982</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M38" s="7">
         <v>1962</v>
@@ -4170,18 +4212,18 @@
         <v>1309709</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4201,7 +4243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A98548-C5D1-406B-9527-C36F4C2D2E6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C26AFF-1405-45F1-9AB9-005ABBB05E5B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4218,7 +4260,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4331,37 +4373,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,7 +4439,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4433,37 +4475,37 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,10 +4574,10 @@
         <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4544,13 +4586,13 @@
         <v>3330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4559,19 +4601,19 @@
         <v>8581</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7">
         <v>116</v>
@@ -4580,13 +4622,13 @@
         <v>80192</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>133</v>
@@ -4595,13 +4637,13 @@
         <v>86938</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M9" s="7">
         <v>249</v>
@@ -4610,13 +4652,13 @@
         <v>167130</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4673,13 @@
         <v>87737</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>140</v>
@@ -4646,13 +4688,13 @@
         <v>91886</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>266</v>
@@ -4661,18 +4703,18 @@
         <v>179623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4690,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4705,7 +4747,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4720,7 +4762,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4783,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4756,7 +4798,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4771,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4828,13 @@
         <v>900</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4801,13 +4843,13 @@
         <v>498</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4816,13 +4858,13 @@
         <v>1398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,10 +4882,10 @@
         <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4855,10 +4897,10 @@
         <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -4867,10 +4909,10 @@
         <v>15401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>242</v>
@@ -4891,10 +4933,10 @@
         <v>243</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -4903,13 +4945,13 @@
         <v>14196</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M15" s="7">
         <v>54</v>
@@ -4918,19 +4960,19 @@
         <v>38527</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7">
         <v>331</v>
@@ -4939,13 +4981,13 @@
         <v>237201</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>303</v>
@@ -4954,13 +4996,13 @@
         <v>210890</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>634</v>
@@ -4969,13 +5011,13 @@
         <v>448091</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5032,13 @@
         <v>267664</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>339</v>
@@ -5005,13 +5047,13 @@
         <v>235752</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>711</v>
@@ -5020,18 +5062,18 @@
         <v>503416</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5064,7 +5106,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5079,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,7 +5157,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5130,7 +5172,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5187,13 @@
         <v>1582</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5160,13 +5202,13 @@
         <v>747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5175,13 +5217,13 @@
         <v>2329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5238,13 @@
         <v>8471</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -5211,13 +5253,13 @@
         <v>3301</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>271</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -5226,13 +5268,13 @@
         <v>11772</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5289,13 @@
         <v>9325</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -5262,13 +5304,13 @@
         <v>9072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -5277,19 +5319,19 @@
         <v>18397</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7">
         <v>199</v>
@@ -5298,13 +5340,13 @@
         <v>137884</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>201</v>
@@ -5313,13 +5355,13 @@
         <v>142037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>400</v>
@@ -5328,13 +5370,13 @@
         <v>279921</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5391,13 @@
         <v>157261</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="7">
         <v>220</v>
@@ -5364,13 +5406,13 @@
         <v>155157</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M24" s="7">
         <v>446</v>
@@ -5379,13 +5421,13 @@
         <v>312419</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5423,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5438,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,7 +5501,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5474,7 +5516,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5489,7 +5531,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,7 +5552,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -5525,7 +5567,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -5540,7 +5582,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5597,13 @@
         <v>2773</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -5570,13 +5612,13 @@
         <v>3490</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -5585,7 +5627,7 @@
         <v>6263</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>298</v>
@@ -5606,13 +5648,13 @@
         <v>8157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5621,13 +5663,13 @@
         <v>9118</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -5636,19 +5678,19 @@
         <v>17275</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7">
         <v>246</v>
@@ -5657,13 +5699,13 @@
         <v>166947</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H30" s="7">
         <v>226</v>
@@ -5672,13 +5714,13 @@
         <v>158729</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M30" s="7">
         <v>472</v>
@@ -5687,13 +5729,13 @@
         <v>325676</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5750,13 @@
         <v>177876</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" s="7">
         <v>243</v>
@@ -5723,13 +5765,13 @@
         <v>171337</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M31" s="7">
         <v>505</v>
@@ -5738,13 +5780,13 @@
         <v>349213</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,37 +5809,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5854,13 @@
         <v>670</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5833,7 +5875,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -5842,13 +5884,13 @@
         <v>670</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5905,13 @@
         <v>2481</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -5878,13 +5920,13 @@
         <v>1245</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -5893,13 +5935,13 @@
         <v>3727</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>319</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5956,13 @@
         <v>18101</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -5929,13 +5971,13 @@
         <v>18576</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M35" s="7">
         <v>50</v>
@@ -5944,13 +5986,13 @@
         <v>36678</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +6007,13 @@
         <v>47063</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H36" s="7">
         <v>51</v>
@@ -5980,13 +6022,13 @@
         <v>35717</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M36" s="7">
         <v>117</v>
@@ -5995,19 +6037,19 @@
         <v>82779</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="7">
         <v>892</v>
@@ -6016,13 +6058,13 @@
         <v>622224</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H37" s="7">
         <v>863</v>
@@ -6031,13 +6073,13 @@
         <v>598594</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M37" s="7">
         <v>1755</v>
@@ -6046,13 +6088,13 @@
         <v>1220817</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>346</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6109,13 @@
         <v>690539</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H38" s="7">
         <v>942</v>
@@ -6082,13 +6124,13 @@
         <v>654132</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M38" s="7">
         <v>1928</v>
@@ -6097,18 +6139,18 @@
         <v>1344670</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +6170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960B33D2-88D7-42F1-9853-AC2ABC6B74D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8872B4F-24D2-4CDD-89F5-BB3D49D4D013}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6145,7 +6187,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6258,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6273,7 +6315,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6288,7 +6330,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,7 +6351,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6324,7 +6366,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6339,7 +6381,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6375,7 +6417,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6390,7 +6432,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6447,13 @@
         <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -6420,13 +6462,13 @@
         <v>2722</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -6435,13 +6477,13 @@
         <v>3409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6498,13 @@
         <v>10555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -6471,13 +6513,13 @@
         <v>7912</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -6486,19 +6528,19 @@
         <v>18467</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7">
         <v>105</v>
@@ -6507,13 +6549,13 @@
         <v>68722</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>120</v>
@@ -6522,13 +6564,13 @@
         <v>74821</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>225</v>
@@ -6537,13 +6579,13 @@
         <v>143542</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6600,13 @@
         <v>79964</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -6573,13 +6615,13 @@
         <v>85991</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>259</v>
@@ -6588,18 +6630,18 @@
         <v>165954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -6617,7 +6659,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6632,7 +6674,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6647,7 +6689,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6683,7 +6725,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>171</v>
+        <v>376</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6698,7 +6740,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6761,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6734,7 +6776,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6749,7 +6791,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,13 +6806,13 @@
         <v>9663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -6779,13 +6821,13 @@
         <v>2907</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -6794,13 +6836,13 @@
         <v>12570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,13 +6857,13 @@
         <v>20945</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H15" s="7">
         <v>33</v>
@@ -6830,13 +6872,13 @@
         <v>21667</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M15" s="7">
         <v>63</v>
@@ -6845,19 +6887,19 @@
         <v>42612</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7">
         <v>336</v>
@@ -6866,13 +6908,13 @@
         <v>226633</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
@@ -6881,13 +6923,13 @@
         <v>183045</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>625</v>
@@ -6896,13 +6938,13 @@
         <v>409678</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +6959,13 @@
         <v>258061</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>327</v>
@@ -6932,13 +6974,13 @@
         <v>207619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>707</v>
@@ -6947,18 +6989,18 @@
         <v>465680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6976,7 +7018,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6991,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -7006,7 +7048,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,7 +7069,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7042,7 +7084,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7057,7 +7099,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,7 +7120,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7087,13 +7129,13 @@
         <v>799</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7102,13 +7144,13 @@
         <v>799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,13 +7165,13 @@
         <v>4690</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>396</v>
+        <v>220</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>234</v>
+        <v>404</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -7138,13 +7180,13 @@
         <v>6285</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>398</v>
+        <v>199</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -7153,13 +7195,13 @@
         <v>10975</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>242</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7216,13 @@
         <v>21227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -7189,13 +7231,13 @@
         <v>22205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -7204,19 +7246,19 @@
         <v>43432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7">
         <v>228</v>
@@ -7225,13 +7267,13 @@
         <v>162655</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -7240,13 +7282,13 @@
         <v>156107</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>453</v>
@@ -7255,13 +7297,13 @@
         <v>318762</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,13 +7318,13 @@
         <v>188572</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="7">
         <v>267</v>
@@ -7291,13 +7333,13 @@
         <v>185397</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M24" s="7">
         <v>530</v>
@@ -7306,13 +7348,13 @@
         <v>373969</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,7 +7377,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7350,7 +7392,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7365,7 +7407,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,7 +7428,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7401,7 +7443,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7416,7 +7458,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7473,13 @@
         <v>1460</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7452,7 +7494,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>420</v>
+        <v>66</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -7461,13 +7503,13 @@
         <v>1460</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>200</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,13 +7524,13 @@
         <v>8032</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -7497,13 +7539,13 @@
         <v>5173</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -7512,13 +7554,13 @@
         <v>13205</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>277</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,13 +7575,13 @@
         <v>15568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -7548,13 +7590,13 @@
         <v>19141</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -7563,19 +7605,19 @@
         <v>34710</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7">
         <v>195</v>
@@ -7584,13 +7626,13 @@
         <v>144684</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>117</v>
+        <v>447</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H30" s="7">
         <v>210</v>
@@ -7599,13 +7641,13 @@
         <v>147784</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>441</v>
+        <v>154</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>405</v>
@@ -7614,13 +7656,13 @@
         <v>292467</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7677,13 @@
         <v>169745</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" s="7">
         <v>245</v>
@@ -7650,13 +7692,13 @@
         <v>172098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M31" s="7">
         <v>474</v>
@@ -7665,13 +7707,13 @@
         <v>341842</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,37 +7736,37 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,37 +7787,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7832,13 @@
         <v>2280</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>15</v>
+        <v>455</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7805,13 +7847,13 @@
         <v>1335</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>447</v>
+        <v>351</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -7820,13 +7862,13 @@
         <v>3615</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>163</v>
+        <v>320</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7883,13 @@
         <v>23073</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>448</v>
+        <v>306</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>100</v>
+        <v>457</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -7856,13 +7898,13 @@
         <v>17086</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>141</v>
+        <v>459</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="M35" s="7">
         <v>57</v>
@@ -7871,13 +7913,13 @@
         <v>40160</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,13 +7934,13 @@
         <v>68295</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="H36" s="7">
         <v>105</v>
@@ -7907,13 +7949,13 @@
         <v>70926</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="M36" s="7">
         <v>200</v>
@@ -7922,19 +7964,19 @@
         <v>139221</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>460</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="7">
         <v>864</v>
@@ -7943,13 +7985,13 @@
         <v>602693</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="H37" s="7">
         <v>844</v>
@@ -7958,13 +8000,13 @@
         <v>561757</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="M37" s="7">
         <v>1708</v>
@@ -7973,13 +8015,13 @@
         <v>1164449</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,13 +8036,13 @@
         <v>696341</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H38" s="7">
         <v>977</v>
@@ -8009,13 +8051,13 @@
         <v>651104</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M38" s="7">
         <v>1970</v>
@@ -8024,18 +8066,18 @@
         <v>1347445</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332E054E-6758-4DD8-A730-21053982CD7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6292414-EA1F-48DE-AA14-4D413EDB03AB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8072,7 +8114,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8185,7 +8227,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8200,7 +8242,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8215,7 +8257,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,7 +8278,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8251,7 +8293,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>472</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8266,7 +8308,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8287,7 +8329,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8302,7 +8344,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>472</v>
+        <v>266</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8317,7 +8359,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8332,13 +8374,13 @@
         <v>1899</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>474</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -8347,13 +8389,13 @@
         <v>1780</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>485</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -8362,13 +8404,13 @@
         <v>3679</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>478</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,13 +8425,13 @@
         <v>8997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -8398,13 +8440,13 @@
         <v>12571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -8413,19 +8455,19 @@
         <v>21567</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7">
         <v>59</v>
@@ -8434,13 +8476,13 @@
         <v>32249</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -8449,13 +8491,13 @@
         <v>31942</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="M9" s="7">
         <v>115</v>
@@ -8464,13 +8506,13 @@
         <v>64190</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,13 +8527,13 @@
         <v>43144</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>83</v>
@@ -8500,13 +8542,13 @@
         <v>46293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -8515,18 +8557,18 @@
         <v>89436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -8544,7 +8586,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8559,7 +8601,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -8574,7 +8616,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8595,7 +8637,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -8610,7 +8652,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -8625,7 +8667,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8646,7 +8688,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -8655,13 +8697,13 @@
         <v>1755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>507</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>508</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -8670,13 +8712,13 @@
         <v>1755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>373</v>
+        <v>509</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>499</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8691,13 +8733,13 @@
         <v>15005</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -8706,13 +8748,13 @@
         <v>10898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>504</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -8721,13 +8763,13 @@
         <v>25903</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8742,13 +8784,13 @@
         <v>43466</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="H15" s="7">
         <v>52</v>
@@ -8757,13 +8799,13 @@
         <v>34509</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="M15" s="7">
         <v>118</v>
@@ -8772,19 +8814,19 @@
         <v>77975</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7">
         <v>185</v>
@@ -8793,13 +8835,13 @@
         <v>115630</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="H16" s="7">
         <v>182</v>
@@ -8808,13 +8850,13 @@
         <v>111603</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>531</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="M16" s="7">
         <v>367</v>
@@ -8823,13 +8865,13 @@
         <v>227232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8844,13 +8886,13 @@
         <v>174717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -8859,13 +8901,13 @@
         <v>158765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
@@ -8874,18 +8916,18 @@
         <v>333482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8903,7 +8945,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -8918,7 +8960,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>298</v>
+        <v>537</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -8933,7 +8975,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8954,7 +8996,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8969,7 +9011,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>537</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -8984,7 +9026,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8999,13 +9041,13 @@
         <v>757</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>462</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -9014,13 +9056,13 @@
         <v>1738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>526</v>
+        <v>235</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9029,13 +9071,13 @@
         <v>2496</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9053,10 +9095,10 @@
         <v>243</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -9065,13 +9107,13 @@
         <v>5131</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>534</v>
+        <v>267</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -9080,13 +9122,13 @@
         <v>23483</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>536</v>
+        <v>177</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>406</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9101,13 +9143,13 @@
         <v>43202</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -9116,13 +9158,13 @@
         <v>46740</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>105</v>
@@ -9131,19 +9173,19 @@
         <v>89942</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7">
         <v>168</v>
@@ -9152,13 +9194,13 @@
         <v>139634</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>86</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
         <v>167</v>
@@ -9167,13 +9209,13 @@
         <v>122503</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
@@ -9182,13 +9224,13 @@
         <v>262137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9203,13 +9245,13 @@
         <v>201945</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" s="7">
         <v>233</v>
@@ -9218,13 +9260,13 @@
         <v>176113</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M24" s="7">
         <v>475</v>
@@ -9233,13 +9275,13 @@
         <v>378057</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9262,7 +9304,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9277,7 +9319,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9292,7 +9334,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9313,7 +9355,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -9328,7 +9370,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -9343,7 +9385,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9358,13 +9400,13 @@
         <v>3832</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>551</v>
+        <v>429</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>203</v>
+        <v>566</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -9373,13 +9415,13 @@
         <v>1026</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="M27" s="7">
         <v>7</v>
@@ -9388,13 +9430,13 @@
         <v>4858</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9409,13 +9451,13 @@
         <v>18202</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="H28" s="7">
         <v>20</v>
@@ -9424,13 +9466,13 @@
         <v>12971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>561</v>
+        <v>488</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -9439,13 +9481,13 @@
         <v>31173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>323</v>
+        <v>575</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9460,13 +9502,13 @@
         <v>70858</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="H29" s="7">
         <v>74</v>
@@ -9475,13 +9517,13 @@
         <v>59789</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="M29" s="7">
         <v>155</v>
@@ -9490,19 +9532,19 @@
         <v>130647</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7">
         <v>228</v>
@@ -9511,13 +9553,13 @@
         <v>196102</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="H30" s="7">
         <v>245</v>
@@ -9526,13 +9568,13 @@
         <v>185653</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="M30" s="7">
         <v>473</v>
@@ -9541,13 +9583,13 @@
         <v>381756</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9562,13 +9604,13 @@
         <v>288994</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" s="7">
         <v>341</v>
@@ -9577,13 +9619,13 @@
         <v>259438</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M31" s="7">
         <v>682</v>
@@ -9592,13 +9634,13 @@
         <v>548433</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9615,13 +9657,13 @@
         <v>616</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>373</v>
+        <v>97</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9636,7 +9678,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9645,13 +9687,13 @@
         <v>616</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>527</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9672,37 +9714,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9717,13 +9759,13 @@
         <v>4589</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>398</v>
+        <v>595</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -9732,13 +9774,13 @@
         <v>4520</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>447</v>
+        <v>596</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>446</v>
+        <v>63</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -9750,10 +9792,10 @@
         <v>128</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>98</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9768,13 +9810,13 @@
         <v>53457</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>583</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="H35" s="7">
         <v>53</v>
@@ -9783,13 +9825,13 @@
         <v>30780</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>586</v>
+        <v>216</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="M35" s="7">
         <v>131</v>
@@ -9798,13 +9840,13 @@
         <v>84237</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>589</v>
+        <v>337</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>590</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9819,13 +9861,13 @@
         <v>166523</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="H36" s="7">
         <v>204</v>
@@ -9834,13 +9876,13 @@
         <v>153608</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="M36" s="7">
         <v>418</v>
@@ -9849,19 +9891,19 @@
         <v>320131</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="7">
         <v>640</v>
@@ -9870,13 +9912,13 @@
         <v>483615</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="H37" s="7">
         <v>650</v>
@@ -9885,13 +9927,13 @@
         <v>451701</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="M37" s="7">
         <v>1290</v>
@@ -9900,13 +9942,13 @@
         <v>935315</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9921,13 +9963,13 @@
         <v>708800</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H38" s="7">
         <v>915</v>
@@ -9936,13 +9978,13 @@
         <v>640609</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M38" s="7">
         <v>1854</v>
@@ -9951,18 +9993,18 @@
         <v>1349408</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
